--- a/resultados_sunat_detallado.xlsx
+++ b/resultados_sunat_detallado.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resultados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,37 +422,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>razon_social</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>ruc</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>nombre_encontrado</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>dni_representante</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>nombre_representante</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>cargo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>fecha_designacion</t>
         </is>
@@ -476,16 +464,11 @@
           <t>SOFIA LIBRERIA Y BAZAR SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>No encontrado</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,7 +481,6 @@
           <t>20334403166</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -531,7 +513,6 @@
           <t>20334403166</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -564,7 +545,6 @@
           <t>20334403166</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -597,7 +577,6 @@
           <t>20334403166</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>PASAPORTE</t>
@@ -630,7 +609,6 @@
           <t>20334403166</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>PASAPORTE</t>
@@ -668,10 +646,6 @@
           <t>baja</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -684,7 +658,6 @@
           <t>20466696065</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -717,7 +690,6 @@
           <t>20603155174</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -750,7 +722,6 @@
           <t>20568169094</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -775,65 +746,58 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UTILES &amp; MAS LIBRERÍA BAZAR E.I.R.L.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>20602434045</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>07621087</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>FIGUEROA AYESTA RAFAEL</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>TITULAR-GERENTE</t>
+          <t>SOFIA LIBRERIA Y BAZAR SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VH FERRETERIA &amp; LIBRERIA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - VH FERRETERIA &amp; LIBRERIA S</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>No encontrado</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>SPECIAL BOOK SERVICES S.A.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20334403166</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07378867</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>VASQUEZ VIDAL ROBERTO AMERICO</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>GERENTE DE FINANZAS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VQ IMPORTACIONES PERU S.A.C.</t>
+          <t>SPECIAL BOOK SERVICES S.A.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20610583947</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>20334403166</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -841,32 +805,31 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>70431261</t>
+          <t>08829036</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>QUILLAMA MAYO MELISSA ANN</t>
+          <t>ALVAREZ RIOS DE TAPIA YOLANDA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GERENTE GENERAL</t>
+          <t>GERENTE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WALAH LIBRERIAS E.I.R.L.</t>
+          <t>SPECIAL BOOK SERVICES S.A.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20607658952</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>20334403166</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -874,114 +837,397 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>44763901</t>
+          <t>40022471</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>FABIAN HUAMAN CRISTHIAN ALEXANDER</t>
+          <t>BONILLA DEL POZO LUZ JOSEFA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WINNAAR MV S.R.L.</t>
+          <t>SPECIAL BOOK SERVICES S.A.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20608872290</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>20334403166</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DNI</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>73104745</t>
+          <t>700620362</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>BARDALES GARCIA VICTOR HUGO</t>
+          <t>ROBERTS TERRY</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>DIRECTOR</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YOKOTA INVERSIONES S.A.C.</t>
+          <t>SPECIAL BOOK SERVICES S.A.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20492418367</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>20334403166</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DNI</t>
+          <t>PASAPORTE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>07349534</t>
+          <t>X-226792</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>GARCIA YOKOTA DE TAMAYO NELLY ERNESTINA</t>
+          <t>RIBEIRO VICENTE JOSE MAUEL</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>GERENTE GENERAL</t>
+          <t>PRESIDENTE DIRECTORIO</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>SYT COMPANY S.A.C.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TATI Y DEYANIRA LIBRERIA BAZAR S.R.L.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20466696065</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>07709939</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PLAZARTE ALEJANDRO LEONOR BLANCA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TONINA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20603155174</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>07635120</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LAZARO MEJIA ANTUHANETT</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UNIVERSO EMPRESARIAL S.A.C.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20568169094</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>19863031</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>MENDOZA POVES LUZ SOCORRO</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>UTILES &amp; MAS LIBRERÍA BAZAR E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20602434045</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>07621087</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>FIGUEROA AYESTA RAFAEL</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>VH FERRETERIA &amp; LIBRERIA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - VH FERRETERIA &amp; LIBRERIA S</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VQ IMPORTACIONES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20610583947</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70431261</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>QUILLAMA MAYO MELISSA ANN</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WALAH LIBRERIAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20607658952</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>44763901</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>FABIAN HUAMAN CRISTHIAN ALEXANDER</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>WINNAAR MV S.R.L.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20608872290</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73104745</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BARDALES GARCIA VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>YOKOTA INVERSIONES S.A.C.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20492418367</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>07349534</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>GARCIA YOKOTA DE TAMAYO NELLY ERNESTINA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>YOVIS C &amp; M LIBRERIA Y ACCESORIOS E.I.R.L.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>20612686611</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>40820117</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>CUSI MAMANI YOVANA ELSI</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>TITULAR-GERENTE</t>
         </is>

--- a/resultados_sunat_detallado.xlsx
+++ b/resultados_sunat_detallado.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,24 +461,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOFIA LIBRERIA Y BAZAR SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No encontrado</t>
+          <t>NOVATE S.A.P S.A.C.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20603734484</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74962180</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PULGAR VALENZUELA SABRINA ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>OM E HIJOS REPRESENTACIONES S.A.C.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20612589021</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -488,29 +508,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>07378867</t>
+          <t>09150893</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VASQUEZ VIDAL ROBERTO AMERICO</t>
+          <t>ANGLES MUÑOZ GILDO ENRIQUE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>GERENTE DE FINANZAS</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>ORIGINAL KOREA IMPORT E.I.R.L.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20613575121</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -520,29 +540,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>08829036</t>
+          <t>45533003</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ALVAREZ RIOS DE TAPIA YOLANDA</t>
+          <t>MUÑOZ HUERTO EDUARDO ABAD</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>TITULAR-GERENTE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>OSAN MOTORS S.A.C.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20612828459</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,12 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40022471</t>
+          <t>48262951</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BONILLA DEL POZO LUZ JOSEFA</t>
+          <t>REYNOSO GAVIRIA OSCAR JULIO</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -569,93 +589,108 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>PARABRISAS DELIVERY LIMA S.A.C.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20606505109</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>700620362</t>
+          <t>47663060</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ROBERTS TERRY</t>
+          <t>PURIHUAMAN MANAYAY SEGUNDO JULIAN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DIRECTOR</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>PERU MASTER AUTOMOCION Y SERVICIOS S.A.C.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20603865546</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>X-226792</t>
+          <t>09376979</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RIBEIRO VICENTE JOSE MAUEL</t>
+          <t>SALDAÑA OLIVA ROGER ABELARDO</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PRESIDENTE DIRECTORIO</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SYT COMPANY S.A.C.</t>
+          <t>PERU TODO 4 X 4 S.A.C.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>baja</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>baja</t>
+          <t>20556062774</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>09126117</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ALCALA QUISPE ROSA GLADIS</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TATI Y DEYANIRA LIBRERIA BAZAR S.R.L.</t>
+          <t>PETRI CORP S.A.C.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20466696065</t>
+          <t>20608001451</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -665,12 +700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>07709939</t>
+          <t>07864353</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PLAZARTE ALEJANDRO LEONOR BLANCA</t>
+          <t>UGARTE CHAVEZ LUIS FERNANDO</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -682,12 +717,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TONINA E.I.R.L.</t>
+          <t>PRAIG SOLUTIONS S.A.C.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20603155174</t>
+          <t>20602103910</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -697,73 +732,78 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>07635120</t>
+          <t>08143503</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>LAZARO MEJIA ANTUHANETT</t>
+          <t>VALERIO LLANOS PABLO CESAR</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TITULAR-GERENTE</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UNIVERSO EMPRESARIAL S.A.C.</t>
+          <t>PREVEN SERVICIOS E.I.R.L.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20568169094</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19863031</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MENDOZA POVES LUZ SOCORRO</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>GERENTE GENERAL</t>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>baja</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOFIA LIBRERIA Y BAZAR SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No encontrado</t>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20330208300</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07946357</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CASTRO CACERES LUIS ALBERTO</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>PROTEMAX S.A.C.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20330208300</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -773,29 +813,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>07378867</t>
+          <t>09415370</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VASQUEZ VIDAL ROBERTO AMERICO</t>
+          <t>HUIZA COLLAZOS JORGE ALFREDO</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>GERENTE DE FINANZAS</t>
+          <t>APODERADO</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>PROTIRES &amp; CAR BOUTIQUE E.I.R.L.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20610201386</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -805,142 +845,142 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>08829036</t>
+          <t>76293841</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ALVAREZ RIOS DE TAPIA YOLANDA</t>
+          <t>LINO PINILLOS ALEX ANTONIO</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>TITULAR-GERENTE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>PROVEEDORA LOGISTICA S.A.C.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20334403166</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>40022471</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>BONILLA DEL POZO LUZ JOSEFA</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>GERENTE GENERAL</t>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>baja</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>QINGDAO TYRES PERU S.A.C.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20492761177</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>700620362</t>
+          <t>10060362</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ROBERTS TERRY</t>
+          <t>BENDEZU OTINIANO OSCAR MANUEL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>DIRECTOR</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SPECIAL BOOK SERVICES S.A.</t>
+          <t>R.A Y N.J FERCAT CORPORACION E.I.R.L.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20334403166</t>
+          <t>20610189033</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PASAPORTE</t>
+          <t>DNI</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>X-226792</t>
+          <t>09880519</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>RIBEIRO VICENTE JOSE MAUEL</t>
+          <t>AGUILAR PEREYRA RUBEN DARIO</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>PRESIDENTE DIRECTORIO</t>
+          <t>TITULAR-GERENTE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SYT COMPANY S.A.C.</t>
+          <t>RADIADORES BARRETO SRL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baja</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>baja</t>
+          <t>20506466963</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09867445</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>BARRETO YAYA MIGUEL ANGEL</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TATI Y DEYANIRA LIBRERIA BAZAR S.R.L.</t>
+          <t>RADIADORES FREELINE S.R.L.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20466696065</t>
+          <t>20608621840</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -950,29 +990,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07709939</t>
+          <t>16463771</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PLAZARTE ALEJANDRO LEONOR BLANCA</t>
+          <t>PEÑARRIETA SIALER MARIO ELARD</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>GERENTE GENERAL</t>
+          <t>GERENTE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TONINA E.I.R.L.</t>
+          <t>RED DINAMO S.A.C.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20603155174</t>
+          <t>20603156219</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -982,29 +1022,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>07635120</t>
+          <t>07968716</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LAZARO MEJIA ANTUHANETT</t>
+          <t>CARRILLO ACOSTA LUIS FERNANDO</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TITULAR-GERENTE</t>
+          <t>GERENTE GENERAL</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UNIVERSO EMPRESARIAL S.A.C.</t>
+          <t>RED DINAMO S.A.C.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20568169094</t>
+          <t>20603156219</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1014,29 +1054,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19863031</t>
+          <t>09175812</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MENDOZA POVES LUZ SOCORRO</t>
+          <t>FERNANDINI MARCIAL FERNANDO MANUEL</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>GERENTE GENERAL</t>
+          <t>APODERADO</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UTILES &amp; MAS LIBRERÍA BAZAR E.I.R.L.</t>
+          <t>RENTA CAR WALLACE E.I.R.L.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20602434045</t>
+          <t>20612377244</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1046,12 +1086,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>07621087</t>
+          <t>40752197</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FIGUEROA AYESTA RAFAEL</t>
+          <t>ROBLE CORONADO WALLACE ARNOLD</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1063,24 +1103,44 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VH FERRETERIA &amp; LIBRERIA SOCIEDAD COMERCIAL DE RESPONSABILIDAD LIMITADA - VH FERRETERIA &amp; LIBRERIA S</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>No encontrado</t>
+          <t>REPRESENTACIONES MJV E.I.R.L</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20607664871</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>40845589</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TRIGOZO PINEDO HITTLER TOMAS</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VQ IMPORTACIONES PERU S.A.C.</t>
+          <t>REPUESTOS JAPONESES S.A.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20610583947</t>
+          <t>20136890329</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1090,12 +1150,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70431261</t>
+          <t>07870500</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>QUILLAMA MAYO MELISSA ANN</t>
+          <t>SALGADO CAVENECIA ROBERTO JAVIER</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1107,12 +1167,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WALAH LIBRERIAS E.I.R.L.</t>
+          <t>REPUESTOS JAPONESES S.A.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20607658952</t>
+          <t>20136890329</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1122,29 +1182,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>44763901</t>
+          <t>08065022</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>FABIAN HUAMAN CRISTHIAN ALEXANDER</t>
+          <t>CONTRERAS ZELADA PEDRO SANTIAGO</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>APODERADO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WINNAAR MV S.R.L.</t>
+          <t>REPUESTOS JAPONESES S.A.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20608872290</t>
+          <t>20136890329</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1154,64 +1214,43 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>73104745</t>
+          <t>09391700</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>BARDALES GARCIA VICTOR HUGO</t>
+          <t>GALARZA TELLO MARIA DEL PILAR</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>GERENTE</t>
+          <t>APODERADO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>YOKOTA INVERSIONES S.A.C.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>20492418367</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>07349534</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>GARCIA YOKOTA DE TAMAYO NELLY ERNESTINA</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>GERENTE GENERAL</t>
+          <t>RG - HYDRO E.I.R.L</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YOVIS C &amp; M LIBRERIA Y ACCESORIOS E.I.R.L.</t>
+          <t>RJ HOLDING PERU SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20612686611</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
+          <t>20610583483</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>DNI</t>
@@ -1219,15 +1258,2323 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>40820117</t>
+          <t>29422410</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CUSI MAMANI YOVANA ELSI</t>
+          <t>SANCHEZ SANCHEZ JOSE MELQUIADES</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RODASIA AUTO PARTS S.A.C</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20603557949</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40964177</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MARTICORENA GAMONAL ARLI</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ROMA IMPORT PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20607902594</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>09535223</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PARDO ALVARADO BELEN MERLEM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>S &amp; C CONTINENTAL PACIFICO E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>S &amp; M IMPORTADORES S.A.C.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20601187435</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>47294974</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MOLINA COAGUILA STUCKER</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>S.J.DISTRIBUCIONES S.A.C.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20386115185</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>06625303</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MEDINA FLORES CLIFFORD</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SAILING POINT S.A.C.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20610482989</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70149681</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SANGUINETI VELASCO RENZO ARTURO</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SAKANA IMPORT EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITAD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20610964053</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>42799506</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CASTILLO ALCAZAR RACKZELL JOVANA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SALES WAR S.A.C.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20614899841</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80517730</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CASTILLO ALARCON WILMER</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SAMI KAY PERU E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20512531165</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>08138334</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>PARRA PACHECO BEATRIZ LUISA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SANJEQ CORPORATION S.A.C.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20610470638</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>41397039</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>QUIÑONES CORTEZ EDWIN RICARDO</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SERV TECN DEL AIRE PA LA IND LA MIN SA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20101107770</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>06632023</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CHEREQUE MORAN CESAR AUGUSTO</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SERV TECN DEL AIRE PA LA IND LA MIN SA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20101107770</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>06663774</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CHEREQUE GUTIERREZ CESAR AUGUSTO</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>APODERADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SERV TECN DEL AIRE PA LA IND LA MIN SA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20101107770</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10551120</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CHEREQUE GUTIERREZ ANA ISABEL</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>APODERADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SERVICEMAQ AMSE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20552254431</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07837962</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SANCHEZ ESPINOZA ANA MARIA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SERVICENTRO VIRGEN DE CHAPI SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20392592904</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>08767557</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>OBANDO PAREDES FRANCISCO ISRAEL</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SERVICIOS GENERALES KORIAKI E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>20535622052</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>44428450</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>CARRASCO YALAN VICTOR JESUS</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SERVICIOS LOGISTICOS DIESEL S.A.C. - SLD S.A.C.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SLOT CASINO SELVA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20600557301</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>16722502</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>RAYA CAICEDO VIDAL RODRIGO</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SMF PERUANA SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20505542364</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>08264924</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SEMINARIO ROMAN JORGE AURELIO</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SOBRE 4 RUEDAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20611308702</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10305276</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>OBANDO CUYA LUIS FRANCISCO</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SOLUCIONES MEDICAS TECNOLOGICAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20600351541</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>09874093</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>REINA MONGRUT JORGE LUIS</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SOPORTES DE VEHICULOS Y EXTINTORES FELIX E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20609133377</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70308289</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CHOQUE TORRES EDWIN FRANK</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SOUTH HORIZON SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20601347807</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>001557951</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NIKLAUS RALF</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOUTH TIRES PERU SOCIEDAD ANONIMA CERRADA - SOUTH TIRES S.A.C.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SPEED-PERU SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SPIN PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20549400508</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>07868242</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>FREUNDT SUAREZ JEAN CARLO</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SUPPLIES &amp; MAINTENANCE SERVICES SAC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20508117354</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>08215970</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CHOUCIÑO TAVERA GENARO</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TALLER AUTOGAS PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20609783878</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73783852</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>SEGOVIA RIVERA CARLOS JOEL</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TORO TRADE COMPANY E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20551639798</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>41376419</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>CEVALLOS WU PAUL ANDRE</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TORQUE S.A.C.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20612160172</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>000758437</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>PATIÑO VALLEJO JUAN JOSE</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TOTAL 4X4 BUSINESS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20612509744</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>71195975</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>QUISPE HURTADO JORGE LUIS</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TOTAL MOTORING S.A.C.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20613889966</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>10635912</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>COLINA VINCES VICTOR ARTURO</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TRACTOPARTES-VR E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No encontrado</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TRADE SERVICE A &amp; E S.A.C.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>20607239861</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>09858346</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>GARCIA DUQUE JAVIER ANTONIO</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>VALLE ALTO MAQUINARIAS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>20550618584</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>08766101</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CUCCHI VDA DE CAVERO VILMA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>VELOTAXI UNO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20612780383</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>09396740</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ZAMALLOA SANTISTEBAN OSCAR</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>VELOTAXI UNO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20612780383</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>49022366</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>VALENZUELA MEDINA ANDY KRISS</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>APODERADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>VENTAS MINERIA BARRICK PERU E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20613808796</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>44479568</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ROMERO SANGAMA LIDRIANA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NOVATE S.A.P S.A.C.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20603734484</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>74962180</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>PULGAR VALENZUELA SABRINA ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>OM E HIJOS REPRESENTACIONES S.A.C.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20612589021</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>09150893</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ANGLES MUÑOZ GILDO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ORIGINAL KOREA IMPORT E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20613575121</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>45533003</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>MUÑOZ HUERTO EDUARDO ABAD</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>OSAN MOTORS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20612828459</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>48262951</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>REYNOSO GAVIRIA OSCAR JULIO</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>PARABRISAS DELIVERY LIMA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20606505109</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>47663060</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>PURIHUAMAN MANAYAY SEGUNDO JULIAN</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PERU MASTER AUTOMOCION Y SERVICIOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20603865546</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>09376979</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>SALDAÑA OLIVA ROGER ABELARDO</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PERU TODO 4 X 4 S.A.C.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20556062774</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>09126117</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ALCALA QUISPE ROSA GLADIS</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PETRI CORP S.A.C.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20608001451</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>07864353</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>UGARTE CHAVEZ LUIS FERNANDO</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PRAIG SOLUTIONS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20602103910</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>08143503</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>VALERIO LLANOS PABLO CESAR</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PREVEN SERVICIOS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20330208300</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>07946357</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>CASTRO CACERES LUIS ALBERTO</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20330208300</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>09415370</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>HUIZA COLLAZOS JORGE ALFREDO</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>APODERADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PROTIRES &amp; CAR BOUTIQUE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20610201386</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76293841</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LINO PINILLOS ALEX ANTONIO</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PROVEEDORA LOGISTICA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>QINGDAO TYRES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20492761177</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>10060362</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>BENDEZU OTINIANO OSCAR MANUEL</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NOVATE S.A.P S.A.C.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20603734484</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NOVATE S.A.P S.A.C.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>74962180</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>PULGAR VALENZUELA SABRINA ALEXANDRA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>OM E HIJOS REPRESENTACIONES S.A.C.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20612589021</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>OM E HIJOS REPRESENTACIONES S.A.C.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>09150893</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ANGLES MUÑOZ GILDO ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ORIGINAL KOREA IMPORT E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20613575121</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ORIGINAL KOREA IMPORT E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>45533003</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MUÑOZ HUERTO EDUARDO ABAD</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>OSAN MOTORS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20612828459</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>OSAN MOTORS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>48262951</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>REYNOSO GAVIRIA OSCAR JULIO</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PARABRISAS DELIVERY LIMA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20606505109</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>PARABRISAS DELIVERY LIMA S.A.C.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>47663060</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>PURIHUAMAN MANAYAY SEGUNDO JULIAN</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>PERU MASTER AUTOMOCION Y SERVICIOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>20603865546</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PERU MASTER AUTOMOCION Y SERVICIOS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>09376979</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>SALDAÑA OLIVA ROGER ABELARDO</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PERU TODO 4 X 4 S.A.C.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20556062774</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>PERU TODO 4 X 4 S.A.C.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>09126117</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ALCALA QUISPE ROSA GLADIS</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PETRI CORP S.A.C.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20608001451</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>PETRI CORP S.A.C.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>07864353</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>UGARTE CHAVEZ LUIS FERNANDO</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PRAIG SOLUTIONS S.A.C.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20602103910</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>PRAIG SOLUTIONS S.A.C.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>08143503</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>VALERIO LLANOS PABLO CESAR</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>PREVEN SERVICIOS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20330208300</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>07946357</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>CASTRO CACERES LUIS ALBERTO</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20330208300</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>PROTEMAX S.A.C.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>09415370</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>HUIZA COLLAZOS JORGE ALFREDO</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>APODERADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>PROTIRES &amp; CAR BOUTIQUE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20610201386</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PROTIRES &amp; CAR BOUTIQUE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>76293841</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LINO PINILLOS ALEX ANTONIO</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PROVEEDORA LOGISTICA S.A.C.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>QINGDAO TYRES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20492761177</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>QINGDAO TYRES PERU S.A.C.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>10060362</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>BENDEZU OTINIANO OSCAR MANUEL</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>R.A Y N.J FERCAT CORPORACION E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20610189033</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>R.A Y N.J FERCAT CORPORACION E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>09880519</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>AGUILAR PEREYRA RUBEN DARIO</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>TITULAR-GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RADIADORES BARRETO SRL</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20506466963</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>RADIADORES BARRETO SRL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>09867445</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>BARRETO YAYA MIGUEL ANGEL</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RADIADORES FREELINE S.R.L.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>20608621840</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RADIADORES FREELINE S.R.L.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>16463771</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>PEÑARRIETA SIALER MARIO ELARD</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>GERENTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RED DINAMO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>20603156219</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>RED DINAMO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>07968716</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>CARRILLO ACOSTA LUIS FERNANDO</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>GERENTE GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RED DINAMO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>20603156219</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>RED DINAMO S.A.C.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>09175812</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>FERNANDINI MARCIAL FERNANDO MANUEL</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>APODERADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RENTA CAR WALLACE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>20612377244</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>RENTA CAR WALLACE E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>DNI</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>40752197</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ROBLE CORONADO WALLACE ARNOLD</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>TITULAR-GERENTE</t>
         </is>

--- a/resultados_sunat_detallado.xlsx
+++ b/resultados_sunat_detallado.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,71 +461,171 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FANTASY CLUB DEL PERU S.A.</t>
+          <t>20479384739</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>ASOCIACION MUSEO LEYMEBAMBA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>baja</t>
+          <t>33417362</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FARJE ALBARADO JABIER</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLOW P. PERU S.A.C.S</t>
+          <t>20608981749</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20612234591</t>
+          <t>CONSORCIO SURWALID S.A.C.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GLOW UP PERÚ S.A.C.</t>
+          <t>73136878</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NINA NINA WASHINTON</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GRUPO TEATRAL CUERPOS Y ALMA</t>
+          <t>20134786605</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20602793908</t>
+          <t>PROMOCIONES TURISTICAS DEL SUR SA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GRUPO TEATRAL CUERPOS Y ALMA</t>
+          <t>29671800</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DNI</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>71208868</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>MACCHIAVELLO ALBARRACIN HILDA SOFIA DEL CARMEN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>PRESIDENTE</t>
+          <t>VELARDE TALLERI JAVIER BERNARDO JOSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20134786605</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PROMOCIONES TURISTICAS DEL SUR SA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30849674</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BEDOYA FORGA EDUARDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20134786605</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PROMOCIONES TURISTICAS DEL SUR SA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30849694</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BEDOYA STAFFORD J L GONZALO RAMIRO D P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TAMBO PUENTE VIEJO S.A.C.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>baja</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20456133721</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RECREACION Y TURISMO EL MOLINO S.C.R.L.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>09343334</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CALLE QUIROS JUAN JOSE FELIPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20456133721</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RECREACION Y TURISMO EL MOLINO S.C.R.L.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>29424634</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PALACIOS CARPIO MIGUEL ALONSO</t>
         </is>
       </c>
     </row>

--- a/resultados_sunat_detallado.xlsx
+++ b/resultados_sunat_detallado.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>nombre_encontrado</t>
+          <t>nombre_empresa</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -461,173 +461,344 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20479384739</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ASOCIACION MUSEO LEYMEBAMBA</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>33417362</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>FARJE ALBARADO JABIER</t>
+          <t>EDVANCE CONSULTING S.A.C.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20608981749</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CONSORCIO SURWALID S.A.C.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>73136878</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NINA NINA WASHINTON</t>
+          <t>EJE PROYECTOS Y SERVICIOS S.A.C.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20134786605</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>PROMOCIONES TURISTICAS DEL SUR SA</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>29671800</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VELARDE TALLERI JAVIER BERNARDO JOSE</t>
+          <t>EJR CONSULTORES &amp; ASOCIADOS S.A.C.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20134786605</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PROMOCIONES TURISTICAS DEL SUR SA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>30849674</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BEDOYA FORGA EDUARDO</t>
+          <t>EL TAMBO LIQUIDADORES Y CONSULTORES S.A.C.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20134786605</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PROMOCIONES TURISTICAS DEL SUR SA</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>30849694</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BEDOYA STAFFORD J L GONZALO RAMIRO D P</t>
+          <t>EMPODÉRATE MAS S.A.C.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TAMBO PUENTE VIEJO S.A.C.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>baja</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>baja</t>
+          <t>EMPRESA DE SUPERVISION DE PROYECTOS EN ENERGIA DYNAMIS E.I.R.L.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20456133721</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>RECREACION Y TURISMO EL MOLINO S.C.R.L.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>09343334</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CALLE QUIROS JUAN JOSE FELIPE</t>
+          <t>ESCUELA HOLISTICA INTERNACIONAL DE INNOVACION EN BIENESTAR Y CAPACITACION S.A.C.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20456133721</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RECREACION Y TURISMO EL MOLINO S.C.R.L.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>29424634</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PALACIOS CARPIO MIGUEL ALONSO</t>
-        </is>
-      </c>
+          <t>ESTANDAR CONSULTORES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ESTRATEGIAS DE COMUNICACION Y ORGANIZACION DE EVENTOS S.R.L</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EX-K-VAR S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>F &amp; M BACK UP E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FACTOR 1 CONSULTORIA EMPRESARIAL S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FCA GRUPO CONSULTOR SAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FYC VISADOS S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>G &amp; C CONSULTORIA Y CAPACITACION EMPRESARIAL S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>G &amp; J INGENIERIA &amp; CONTRATISTAS GENERALES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GEA CONSULTING PERU S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GESTION PARA LA PREVENCION DE DESASTRES S.A.C. - GEPREDES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GETRAL PERU S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GRECAR E.I.R.L</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GREKS ASESORES SOCIEDAD ANONIMA CERRADA - GREKS ASESORES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GRP INTERGROUP SOCIEDAD ANONIMA CERRADA - GRP INTERGROUP S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GRUPO ASESORES Y CONSULTORES EUREKA E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GRUPO CONFAR E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GRUPO GESTION CONTABLE S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GRUPO INVERSIONES CRECER S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GRUPO MELIUS S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GRUPO THAYPEL S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GRUPO TORRES &amp; PROYECTOS E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HAFAL SERVICES SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HANDBOOK BUSINESS COMPANY S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HAR CONSULTORES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HARD STUDIES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HCARLOS MARKETING &amp; VENTAS S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HILL AND FLOWER-CONSULTING E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HPAREDES CONSULTORES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HRE CONSULTORES E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>HSEQ TRAINING S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>HUB PROFESSIONAL CONSULTORES S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ILLARI MINERALS S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IMAGEN &amp; IDEAS SAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>IMPORT &amp; EXPORT MARK E.I.R.L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>INNSER SOLUTIONS S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>INORDER S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>INRADE COMPANY S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>INSTITUTO DE INVESTIGACION FORMACION Y DESARROLLO SOCIAL DEL PERU - IFDESP</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>INSTITUTO NACIONAL DE ADMINISTRACION PUBLICA Y PRIVADA S.A.C.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>INTAK LINE SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
